--- a/data/pca/factorExposure/factorExposure_2015-11-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-11-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01755114316422008</v>
+        <v>0.01427737380444023</v>
       </c>
       <c r="C2">
-        <v>0.03331550246561718</v>
+        <v>-0.0324829556181101</v>
       </c>
       <c r="D2">
-        <v>0.08931335483983867</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1234673112109235</v>
+      </c>
+      <c r="E2">
+        <v>0.06897235738449425</v>
+      </c>
+      <c r="F2">
+        <v>0.0245325851964385</v>
+      </c>
+      <c r="G2">
+        <v>0.07370672805085114</v>
+      </c>
+      <c r="H2">
+        <v>-0.09117766962405127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.02147298988064373</v>
+        <v>0.01336216661676217</v>
       </c>
       <c r="C3">
-        <v>0.04711014008174842</v>
+        <v>-0.03677476318813126</v>
       </c>
       <c r="D3">
-        <v>0.1147143659505298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.06899899271807391</v>
+      </c>
+      <c r="E3">
+        <v>0.04724103651337631</v>
+      </c>
+      <c r="F3">
+        <v>0.04469770831513716</v>
+      </c>
+      <c r="G3">
+        <v>0.0984200651917706</v>
+      </c>
+      <c r="H3">
+        <v>-0.006136394424962353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05793630826941375</v>
+        <v>0.05407132662519724</v>
       </c>
       <c r="C4">
-        <v>0.04106957043584265</v>
+        <v>-0.06305421679865707</v>
       </c>
       <c r="D4">
-        <v>0.1303692087705944</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1458824516850482</v>
+      </c>
+      <c r="E4">
+        <v>0.05158964789310796</v>
+      </c>
+      <c r="F4">
+        <v>0.02067627299840137</v>
+      </c>
+      <c r="G4">
+        <v>-0.0375669916856422</v>
+      </c>
+      <c r="H4">
+        <v>0.02143975243660379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.04248337893117107</v>
+        <v>0.03975021394417505</v>
       </c>
       <c r="C6">
-        <v>0.0134092557145448</v>
+        <v>-0.02754371834110882</v>
       </c>
       <c r="D6">
-        <v>0.1351846658323944</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1334353140464692</v>
+      </c>
+      <c r="E6">
+        <v>0.03086509771686457</v>
+      </c>
+      <c r="F6">
+        <v>0.015408723729728</v>
+      </c>
+      <c r="G6">
+        <v>0.01032258291854838</v>
+      </c>
+      <c r="H6">
+        <v>-0.01661012074803454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02254500865057323</v>
+        <v>0.01411710787932191</v>
       </c>
       <c r="C7">
-        <v>0.01812258491430235</v>
+        <v>-0.03134065454711049</v>
       </c>
       <c r="D7">
-        <v>0.09631782745704034</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09498663009819394</v>
+      </c>
+      <c r="E7">
+        <v>0.02942697772083536</v>
+      </c>
+      <c r="F7">
+        <v>0.02253577944940948</v>
+      </c>
+      <c r="G7">
+        <v>0.001731379559302232</v>
+      </c>
+      <c r="H7">
+        <v>-0.113717959262944</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01126124197364802</v>
+        <v>0.007112379077059771</v>
       </c>
       <c r="C8">
-        <v>0.02963795017821149</v>
+        <v>-0.03728783039617421</v>
       </c>
       <c r="D8">
-        <v>0.05506144431985737</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0733340970278841</v>
+      </c>
+      <c r="E8">
+        <v>0.03468454507846488</v>
+      </c>
+      <c r="F8">
+        <v>0.04322744295043511</v>
+      </c>
+      <c r="G8">
+        <v>0.01756359130664725</v>
+      </c>
+      <c r="H8">
+        <v>-0.04167319231332516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04676680716633733</v>
+        <v>0.04233479165209159</v>
       </c>
       <c r="C9">
-        <v>0.04379360397584326</v>
+        <v>-0.05980343115952771</v>
       </c>
       <c r="D9">
-        <v>0.1125708078137965</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1225795172881035</v>
+      </c>
+      <c r="E9">
+        <v>0.03616172469458571</v>
+      </c>
+      <c r="F9">
+        <v>0.003055805036144265</v>
+      </c>
+      <c r="G9">
+        <v>-0.02695520557048934</v>
+      </c>
+      <c r="H9">
+        <v>-0.008281741131494009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.09533413599062189</v>
+        <v>0.1414712296745919</v>
       </c>
       <c r="C10">
-        <v>-0.1886832295348684</v>
+        <v>0.1870103113054419</v>
       </c>
       <c r="D10">
-        <v>0.00127864438911258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.001530919319224947</v>
+      </c>
+      <c r="E10">
+        <v>0.04302127133221165</v>
+      </c>
+      <c r="F10">
+        <v>0.02445355388459561</v>
+      </c>
+      <c r="G10">
+        <v>-0.03367226858536322</v>
+      </c>
+      <c r="H10">
+        <v>0.002415689822939352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03441657111451196</v>
+        <v>0.02801156209325223</v>
       </c>
       <c r="C11">
-        <v>0.03780694432538032</v>
+        <v>-0.04474061392043962</v>
       </c>
       <c r="D11">
-        <v>0.05574675122808101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05835420807211839</v>
+      </c>
+      <c r="E11">
+        <v>-0.005079012406775205</v>
+      </c>
+      <c r="F11">
+        <v>0.001359772351214622</v>
+      </c>
+      <c r="G11">
+        <v>0.003291398095942761</v>
+      </c>
+      <c r="H11">
+        <v>-0.04810054255786866</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04089624648772253</v>
+        <v>0.03355818627622235</v>
       </c>
       <c r="C12">
-        <v>0.03919007939274376</v>
+        <v>-0.04591970531792644</v>
       </c>
       <c r="D12">
-        <v>0.05864270122938559</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05783150613386567</v>
+      </c>
+      <c r="E12">
+        <v>0.001979171405591439</v>
+      </c>
+      <c r="F12">
+        <v>-0.00724910456475805</v>
+      </c>
+      <c r="G12">
+        <v>0.003368685858888284</v>
+      </c>
+      <c r="H12">
+        <v>-0.06176024953667973</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01923648687312991</v>
+        <v>0.01750050181293148</v>
       </c>
       <c r="C13">
-        <v>0.03021355327096178</v>
+        <v>-0.03850781093436731</v>
       </c>
       <c r="D13">
-        <v>0.1240158834921494</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1446473476259815</v>
+      </c>
+      <c r="E13">
+        <v>0.05076798616879434</v>
+      </c>
+      <c r="F13">
+        <v>0.03893133978836816</v>
+      </c>
+      <c r="G13">
+        <v>0.01258927094105669</v>
+      </c>
+      <c r="H13">
+        <v>-0.1003466795042851</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01002165233445073</v>
+        <v>0.008567323833352101</v>
       </c>
       <c r="C14">
-        <v>0.01484450903635568</v>
+        <v>-0.02398381529363698</v>
       </c>
       <c r="D14">
-        <v>0.07753519736377955</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.08818992464828052</v>
+      </c>
+      <c r="E14">
+        <v>0.03593670677473905</v>
+      </c>
+      <c r="F14">
+        <v>-0.002824108982500353</v>
+      </c>
+      <c r="G14">
+        <v>0.01539002498667097</v>
+      </c>
+      <c r="H14">
+        <v>-0.1037917188839127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002316734131293918</v>
+        <v>0.001524535169873208</v>
       </c>
       <c r="C15">
-        <v>0.002037905336238743</v>
+        <v>-0.01030354857124369</v>
       </c>
       <c r="D15">
-        <v>0.003283732331659647</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.03267005454523757</v>
+      </c>
+      <c r="E15">
+        <v>0.006482364992577224</v>
+      </c>
+      <c r="F15">
+        <v>-0.001492576244370004</v>
+      </c>
+      <c r="G15">
+        <v>0.01043679737906345</v>
+      </c>
+      <c r="H15">
+        <v>-0.009779894271115964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.0344464754685898</v>
+        <v>0.02868076073098448</v>
       </c>
       <c r="C16">
-        <v>0.04039127981149784</v>
+        <v>-0.04486504744340806</v>
       </c>
       <c r="D16">
-        <v>0.06558694855401032</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06221921675058907</v>
+      </c>
+      <c r="E16">
+        <v>0.008231134181680767</v>
+      </c>
+      <c r="F16">
+        <v>-0.006263919299249177</v>
+      </c>
+      <c r="G16">
+        <v>0.004140941622796814</v>
+      </c>
+      <c r="H16">
+        <v>-0.05982700506807322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.01090322892683372</v>
+        <v>0.007320062871432114</v>
       </c>
       <c r="C19">
-        <v>0.02318692004629684</v>
+        <v>-0.02035769957615725</v>
       </c>
       <c r="D19">
-        <v>0.1682269154088798</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1240631354798855</v>
+      </c>
+      <c r="E19">
+        <v>0.06117365476021729</v>
+      </c>
+      <c r="F19">
+        <v>-0.003877434156143049</v>
+      </c>
+      <c r="G19">
+        <v>0.02263537929097304</v>
+      </c>
+      <c r="H19">
+        <v>-0.06477703973915146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0177056836891643</v>
+        <v>0.01566124151717358</v>
       </c>
       <c r="C20">
-        <v>0.02674967603052196</v>
+        <v>-0.03301415559295234</v>
       </c>
       <c r="D20">
-        <v>0.08572757858698388</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.09914653011595266</v>
+      </c>
+      <c r="E20">
+        <v>0.05009523636750195</v>
+      </c>
+      <c r="F20">
+        <v>-0.003167591794449188</v>
+      </c>
+      <c r="G20">
+        <v>0.002760325163666852</v>
+      </c>
+      <c r="H20">
+        <v>-0.05936562220998436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01349431629599941</v>
+        <v>0.01365640618158756</v>
       </c>
       <c r="C21">
-        <v>0.0330376821635382</v>
+        <v>-0.03718231964766702</v>
       </c>
       <c r="D21">
-        <v>0.1264346440451927</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.139087979828513</v>
+      </c>
+      <c r="E21">
+        <v>0.08828038715599515</v>
+      </c>
+      <c r="F21">
+        <v>0.004200549202218029</v>
+      </c>
+      <c r="G21">
+        <v>-0.02052577726081488</v>
+      </c>
+      <c r="H21">
+        <v>-0.1237251227815568</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.00920603314855753</v>
+        <v>0.005571710657079084</v>
       </c>
       <c r="C22">
-        <v>0.02833944370513027</v>
+        <v>-0.0416149233276742</v>
       </c>
       <c r="D22">
-        <v>0.08776621625996422</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1457103234540382</v>
+      </c>
+      <c r="E22">
+        <v>0.0309483206242978</v>
+      </c>
+      <c r="F22">
+        <v>0.08834505916542787</v>
+      </c>
+      <c r="G22">
+        <v>0.07288204443862663</v>
+      </c>
+      <c r="H22">
+        <v>0.06596468977142775</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.009329193644295264</v>
+        <v>0.00567696590358618</v>
       </c>
       <c r="C23">
-        <v>0.0282728288820571</v>
+        <v>-0.04208482818157126</v>
       </c>
       <c r="D23">
-        <v>0.08705705985385816</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1451655155666117</v>
+      </c>
+      <c r="E23">
+        <v>0.03123838679586997</v>
+      </c>
+      <c r="F23">
+        <v>0.08831739619284322</v>
+      </c>
+      <c r="G23">
+        <v>0.0719401690190267</v>
+      </c>
+      <c r="H23">
+        <v>0.06609311877791681</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03775297875336763</v>
+        <v>0.03034047844842299</v>
       </c>
       <c r="C24">
-        <v>0.04946150496054259</v>
+        <v>-0.05629438742915063</v>
       </c>
       <c r="D24">
-        <v>0.06364949843932531</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06577701303534146</v>
+      </c>
+      <c r="E24">
+        <v>0.01226271462726413</v>
+      </c>
+      <c r="F24">
+        <v>-0.004696431002688562</v>
+      </c>
+      <c r="G24">
+        <v>-0.003763381441241459</v>
+      </c>
+      <c r="H24">
+        <v>-0.07128169878318223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04146498064790947</v>
+        <v>0.03460928059461745</v>
       </c>
       <c r="C25">
-        <v>0.04853340435322803</v>
+        <v>-0.05378528781681442</v>
       </c>
       <c r="D25">
-        <v>0.06379258600821137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06273061262094039</v>
+      </c>
+      <c r="E25">
+        <v>0.01274402230762322</v>
+      </c>
+      <c r="F25">
+        <v>0.0008076136901312209</v>
+      </c>
+      <c r="G25">
+        <v>-0.004437467415770083</v>
+      </c>
+      <c r="H25">
+        <v>-0.05732350941108066</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02098685633041987</v>
+        <v>0.01889205073891635</v>
       </c>
       <c r="C26">
-        <v>0.007735661895414708</v>
+        <v>-0.01751816649074701</v>
       </c>
       <c r="D26">
-        <v>0.05124155876956724</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06298601297768715</v>
+      </c>
+      <c r="E26">
+        <v>0.02585698679028746</v>
+      </c>
+      <c r="F26">
+        <v>0.005153100339475482</v>
+      </c>
+      <c r="G26">
+        <v>0.009857855955341221</v>
+      </c>
+      <c r="H26">
+        <v>-0.06384770844413408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1462528939123938</v>
+        <v>0.2014785343818508</v>
       </c>
       <c r="C28">
-        <v>-0.2707329849266993</v>
+        <v>0.250775405556772</v>
       </c>
       <c r="D28">
-        <v>-0.03103709553852811</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01317346325328645</v>
+      </c>
+      <c r="E28">
+        <v>0.06867693034630706</v>
+      </c>
+      <c r="F28">
+        <v>0.004837209172674709</v>
+      </c>
+      <c r="G28">
+        <v>-0.06446779408807833</v>
+      </c>
+      <c r="H28">
+        <v>-0.01478106789243783</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.006464049501379399</v>
+        <v>0.006327896918960152</v>
       </c>
       <c r="C29">
-        <v>0.01700876588652077</v>
+        <v>-0.02291450113106281</v>
       </c>
       <c r="D29">
-        <v>0.0623173505275712</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.08200871906640789</v>
+      </c>
+      <c r="E29">
+        <v>0.03203204513846278</v>
+      </c>
+      <c r="F29">
+        <v>0.01159447781724588</v>
+      </c>
+      <c r="G29">
+        <v>-0.002656782150093214</v>
+      </c>
+      <c r="H29">
+        <v>-0.1092620619221901</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.03947764923654471</v>
+        <v>0.04106565860228669</v>
       </c>
       <c r="C30">
-        <v>0.03658408796678175</v>
+        <v>-0.06058855824638779</v>
       </c>
       <c r="D30">
-        <v>0.1656995529779442</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1788427348891878</v>
+      </c>
+      <c r="E30">
+        <v>0.01742595607795871</v>
+      </c>
+      <c r="F30">
+        <v>0.009841509709477158</v>
+      </c>
+      <c r="G30">
+        <v>0.02502833972808619</v>
+      </c>
+      <c r="H30">
+        <v>-0.001320007638074058</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06990231977661927</v>
+        <v>0.05506066972192452</v>
       </c>
       <c r="C31">
-        <v>0.04820636042910619</v>
+        <v>-0.07268813237964326</v>
       </c>
       <c r="D31">
-        <v>0.06780352145438712</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05609336262123572</v>
+      </c>
+      <c r="E31">
+        <v>0.03068866803600794</v>
+      </c>
+      <c r="F31">
+        <v>0.03142744342452486</v>
+      </c>
+      <c r="G31">
+        <v>-0.01801320941931327</v>
+      </c>
+      <c r="H31">
+        <v>-0.04627196553317824</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.005556930464257061</v>
+        <v>0.01019566007011005</v>
       </c>
       <c r="C32">
-        <v>0.01764770045704914</v>
+        <v>-0.01918322422846016</v>
       </c>
       <c r="D32">
-        <v>0.06514601776174136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1032291888838781</v>
+      </c>
+      <c r="E32">
+        <v>0.09146033304300175</v>
+      </c>
+      <c r="F32">
+        <v>0.01290014709868768</v>
+      </c>
+      <c r="G32">
+        <v>-0.02099110654066437</v>
+      </c>
+      <c r="H32">
+        <v>-0.1011130328522196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02528902285532025</v>
+        <v>0.02278240873751949</v>
       </c>
       <c r="C33">
-        <v>0.0304750483869571</v>
+        <v>-0.04311451815636582</v>
       </c>
       <c r="D33">
-        <v>0.1319807493400934</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1319228123462156</v>
+      </c>
+      <c r="E33">
+        <v>0.04174445663820122</v>
+      </c>
+      <c r="F33">
+        <v>0.01719597699125655</v>
+      </c>
+      <c r="G33">
+        <v>0.00566122684260151</v>
+      </c>
+      <c r="H33">
+        <v>-0.06785377674925837</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03539396102648806</v>
+        <v>0.02658723358822752</v>
       </c>
       <c r="C34">
-        <v>0.06145130619528919</v>
+        <v>-0.06143070139267542</v>
       </c>
       <c r="D34">
-        <v>0.06697548683048599</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05539591285361704</v>
+      </c>
+      <c r="E34">
+        <v>-0.005008336700203079</v>
+      </c>
+      <c r="F34">
+        <v>-0.009065289153296982</v>
+      </c>
+      <c r="G34">
+        <v>0.00445715745041674</v>
+      </c>
+      <c r="H34">
+        <v>-0.07740646199984731</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0009192847413525837</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.0005510931210920582</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.005059948613480374</v>
+      </c>
+      <c r="E35">
+        <v>0.0008120454987051627</v>
+      </c>
+      <c r="F35">
+        <v>2.732480639492903e-06</v>
+      </c>
+      <c r="G35">
+        <v>0.001800561725159589</v>
+      </c>
+      <c r="H35">
+        <v>-0.002619441045912504</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02232196473453486</v>
+        <v>0.01954988470889116</v>
       </c>
       <c r="C36">
-        <v>0.002510028408734308</v>
+        <v>-0.01420239581167348</v>
       </c>
       <c r="D36">
-        <v>0.07094497737502221</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.07667517634542051</v>
+      </c>
+      <c r="E36">
+        <v>0.03196563821999106</v>
+      </c>
+      <c r="F36">
+        <v>0.002943354436107725</v>
+      </c>
+      <c r="G36">
+        <v>-0.006157041116599933</v>
+      </c>
+      <c r="H36">
+        <v>-0.05669516428134151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02177743223336549</v>
+        <v>0.02004928686201375</v>
       </c>
       <c r="C38">
-        <v>0.01621835094945982</v>
+        <v>-0.02068215744131209</v>
       </c>
       <c r="D38">
-        <v>0.05097367930332029</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.05944922277403604</v>
+      </c>
+      <c r="E38">
+        <v>0.0380601744694439</v>
+      </c>
+      <c r="F38">
+        <v>-0.008116902592422159</v>
+      </c>
+      <c r="G38">
+        <v>0.03914275540321793</v>
+      </c>
+      <c r="H38">
+        <v>-0.03904792393074977</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04040161464755354</v>
+        <v>0.0352679393313682</v>
       </c>
       <c r="C39">
-        <v>0.04894896155020006</v>
+        <v>-0.06510374088991125</v>
       </c>
       <c r="D39">
-        <v>0.08862454934315522</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1047869186529765</v>
+      </c>
+      <c r="E39">
+        <v>0.005452960328200692</v>
+      </c>
+      <c r="F39">
+        <v>-0.02622114496081552</v>
+      </c>
+      <c r="G39">
+        <v>0.007070717903548292</v>
+      </c>
+      <c r="H39">
+        <v>-0.08750305104668843</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.02069462805392167</v>
+        <v>0.01370725042987131</v>
       </c>
       <c r="C40">
-        <v>0.04644383464264761</v>
+        <v>-0.03878507342247549</v>
       </c>
       <c r="D40">
-        <v>0.07557122288929283</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.08306682054416058</v>
+      </c>
+      <c r="E40">
+        <v>0.06192338046459267</v>
+      </c>
+      <c r="F40">
+        <v>0.07023634764121298</v>
+      </c>
+      <c r="G40">
+        <v>0.06890389795908275</v>
+      </c>
+      <c r="H40">
+        <v>-0.1576040312568459</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.02528373875834361</v>
+        <v>0.02401075669489606</v>
       </c>
       <c r="C41">
-        <v>-0.002417087278578068</v>
+        <v>-0.008077172567381209</v>
       </c>
       <c r="D41">
-        <v>0.06651558970179934</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05411496705574024</v>
+      </c>
+      <c r="E41">
+        <v>0.05197371313647692</v>
+      </c>
+      <c r="F41">
+        <v>0.002519219618079279</v>
+      </c>
+      <c r="G41">
+        <v>0.01460221617308995</v>
+      </c>
+      <c r="H41">
+        <v>-0.04753334113907266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.03030140710268822</v>
+        <v>0.02372489576085942</v>
       </c>
       <c r="C43">
-        <v>0.008397548736721645</v>
+        <v>-0.01794756389836226</v>
       </c>
       <c r="D43">
-        <v>0.1013960784683135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.0827321063253247</v>
+      </c>
+      <c r="E43">
+        <v>0.03143924007541506</v>
+      </c>
+      <c r="F43">
+        <v>0.005200952796201265</v>
+      </c>
+      <c r="G43">
+        <v>0.01550208580788439</v>
+      </c>
+      <c r="H43">
+        <v>-0.07036345964364371</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01729151614974086</v>
+        <v>0.01680849548356014</v>
       </c>
       <c r="C44">
-        <v>0.04619657794701881</v>
+        <v>-0.04398522533174671</v>
       </c>
       <c r="D44">
-        <v>0.077322535897717</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09931888954657871</v>
+      </c>
+      <c r="E44">
+        <v>0.06714402912328324</v>
+      </c>
+      <c r="F44">
+        <v>0.008851575874958249</v>
+      </c>
+      <c r="G44">
+        <v>0.007801969088280632</v>
+      </c>
+      <c r="H44">
+        <v>-0.0733018047824254</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02066571771459531</v>
+        <v>0.01550086873590684</v>
       </c>
       <c r="C46">
-        <v>0.01558595575905702</v>
+        <v>-0.02865571581792999</v>
       </c>
       <c r="D46">
-        <v>0.07282525061918237</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.08712650250552816</v>
+      </c>
+      <c r="E46">
+        <v>0.03616415711133945</v>
+      </c>
+      <c r="F46">
+        <v>-0.01406834358884472</v>
+      </c>
+      <c r="G46">
+        <v>-0.01082192553556115</v>
+      </c>
+      <c r="H46">
+        <v>-0.1127743409516436</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09736141306429988</v>
+        <v>0.08192793207915255</v>
       </c>
       <c r="C47">
-        <v>0.06619663913635633</v>
+        <v>-0.08927139046428792</v>
       </c>
       <c r="D47">
-        <v>0.04762513681434868</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03369912240593521</v>
+      </c>
+      <c r="E47">
+        <v>0.03565939668652087</v>
+      </c>
+      <c r="F47">
+        <v>0.02061855840553991</v>
+      </c>
+      <c r="G47">
+        <v>-0.04189937024010815</v>
+      </c>
+      <c r="H47">
+        <v>-0.02520684460990947</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01693571708214048</v>
+        <v>0.01662351053321741</v>
       </c>
       <c r="C48">
-        <v>0.01344329732643584</v>
+        <v>-0.01942803048709142</v>
       </c>
       <c r="D48">
-        <v>0.06426077913892506</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07343259034675975</v>
+      </c>
+      <c r="E48">
+        <v>0.04945315376409917</v>
+      </c>
+      <c r="F48">
+        <v>-0.001533416651102731</v>
+      </c>
+      <c r="G48">
+        <v>-0.004094560885700473</v>
+      </c>
+      <c r="H48">
+        <v>-0.06335263938797148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.0636649251981368</v>
+        <v>0.05331230742142527</v>
       </c>
       <c r="C50">
-        <v>0.0513331301416985</v>
+        <v>-0.06711359055857405</v>
       </c>
       <c r="D50">
-        <v>0.06318082235062226</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05510484479936495</v>
+      </c>
+      <c r="E50">
+        <v>0.04044874491732487</v>
+      </c>
+      <c r="F50">
+        <v>0.03851067289954347</v>
+      </c>
+      <c r="G50">
+        <v>0.01426088741384237</v>
+      </c>
+      <c r="H50">
+        <v>-0.04700233165776307</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01042309245126513</v>
+        <v>0.01060080482386405</v>
       </c>
       <c r="C51">
-        <v>0.01759528398268804</v>
+        <v>-0.01947933468176059</v>
       </c>
       <c r="D51">
-        <v>0.08009824561679289</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.08914868652032243</v>
+      </c>
+      <c r="E51">
+        <v>0.01296756145384302</v>
+      </c>
+      <c r="F51">
+        <v>0.003734753004459822</v>
+      </c>
+      <c r="G51">
+        <v>0.02081633849508552</v>
+      </c>
+      <c r="H51">
+        <v>-0.06625907007156097</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.0877886926036123</v>
+        <v>0.08549105577356954</v>
       </c>
       <c r="C53">
-        <v>0.08653391647627896</v>
+        <v>-0.1026021134663237</v>
       </c>
       <c r="D53">
-        <v>0.01621296617847726</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01165155545830641</v>
+      </c>
+      <c r="E53">
+        <v>0.1062943323717043</v>
+      </c>
+      <c r="F53">
+        <v>0.04145498609191235</v>
+      </c>
+      <c r="G53">
+        <v>-0.08804442643981522</v>
+      </c>
+      <c r="H53">
+        <v>-0.0136372597598413</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.03239366465375353</v>
+        <v>0.02579492200696215</v>
       </c>
       <c r="C54">
-        <v>0.02844974590012116</v>
+        <v>-0.03649602886502609</v>
       </c>
       <c r="D54">
-        <v>0.08636959145858229</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.08703627296007578</v>
+      </c>
+      <c r="E54">
+        <v>0.04159633049749156</v>
+      </c>
+      <c r="F54">
+        <v>-0.01135708173463932</v>
+      </c>
+      <c r="G54">
+        <v>0.02422550108679155</v>
+      </c>
+      <c r="H54">
+        <v>-0.1150566169271083</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09122034133303755</v>
+        <v>0.0839636739387811</v>
       </c>
       <c r="C55">
-        <v>0.05720858332799136</v>
+        <v>-0.08159313541322448</v>
       </c>
       <c r="D55">
-        <v>-0.00381491999015928</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008052331227402927</v>
+      </c>
+      <c r="E55">
+        <v>0.05981565200223336</v>
+      </c>
+      <c r="F55">
+        <v>0.0393268389362587</v>
+      </c>
+      <c r="G55">
+        <v>-0.04454734183922086</v>
+      </c>
+      <c r="H55">
+        <v>0.0005220972944455333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1385185434852437</v>
+        <v>0.1283329187567261</v>
       </c>
       <c r="C56">
-        <v>0.0929890260732933</v>
+        <v>-0.1260039519602277</v>
       </c>
       <c r="D56">
-        <v>0.005133171023977309</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.008224019160936877</v>
+      </c>
+      <c r="E56">
+        <v>0.06389667499411882</v>
+      </c>
+      <c r="F56">
+        <v>0.03023467958467375</v>
+      </c>
+      <c r="G56">
+        <v>-0.04758661695854494</v>
+      </c>
+      <c r="H56">
+        <v>-0.002049747535249558</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.01617700928524175</v>
+        <v>0.02518493233927115</v>
       </c>
       <c r="C58">
-        <v>-0.01527024262132412</v>
+        <v>-0.01802207965792883</v>
       </c>
       <c r="D58">
-        <v>0.3465227443955458</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3780886818797384</v>
+      </c>
+      <c r="E58">
+        <v>0.1983063299263337</v>
+      </c>
+      <c r="F58">
+        <v>0.1307888233174228</v>
+      </c>
+      <c r="G58">
+        <v>0.2452250162418576</v>
+      </c>
+      <c r="H58">
+        <v>0.4363716574730347</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1397354037520121</v>
+        <v>0.1793809971750882</v>
       </c>
       <c r="C59">
-        <v>-0.1944389771332817</v>
+        <v>0.1681882682225342</v>
       </c>
       <c r="D59">
-        <v>0.0288827468424121</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.05090782677887879</v>
+      </c>
+      <c r="E59">
+        <v>0.01494336739198227</v>
+      </c>
+      <c r="F59">
+        <v>-0.04145347964852737</v>
+      </c>
+      <c r="G59">
+        <v>-0.0004595108409094719</v>
+      </c>
+      <c r="H59">
+        <v>0.02434723798193806</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2481756073201192</v>
+        <v>0.2270445384385199</v>
       </c>
       <c r="C60">
-        <v>0.05959606483683935</v>
+        <v>-0.1050075328011998</v>
       </c>
       <c r="D60">
-        <v>0.1770905409964582</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1133089934585584</v>
+      </c>
+      <c r="E60">
+        <v>-0.3624227376578445</v>
+      </c>
+      <c r="F60">
+        <v>0.03455454217592752</v>
+      </c>
+      <c r="G60">
+        <v>-0.0339230203750804</v>
+      </c>
+      <c r="H60">
+        <v>0.1130744121530626</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04751193007887547</v>
+        <v>0.03977960473608409</v>
       </c>
       <c r="C61">
-        <v>0.0517745059664268</v>
+        <v>-0.06210400515228613</v>
       </c>
       <c r="D61">
-        <v>0.09558557326695744</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09242277718500914</v>
+      </c>
+      <c r="E61">
+        <v>0.001830048238153801</v>
+      </c>
+      <c r="F61">
+        <v>-0.01698690208932026</v>
+      </c>
+      <c r="G61">
+        <v>-0.005613867745009735</v>
+      </c>
+      <c r="H61">
+        <v>-0.08094167540562906</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01782656068778365</v>
+        <v>0.01426192993101363</v>
       </c>
       <c r="C63">
-        <v>0.02346671362653717</v>
+        <v>-0.03336511051863549</v>
       </c>
       <c r="D63">
-        <v>0.06064967175854166</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06756162632201664</v>
+      </c>
+      <c r="E63">
+        <v>0.02910257395442102</v>
+      </c>
+      <c r="F63">
+        <v>0.01761117327061889</v>
+      </c>
+      <c r="G63">
+        <v>0.005101621505435416</v>
+      </c>
+      <c r="H63">
+        <v>-0.05027549914643891</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.06122197403640838</v>
+        <v>0.05317199377474901</v>
       </c>
       <c r="C64">
-        <v>0.06688411598162353</v>
+        <v>-0.08216696648099449</v>
       </c>
       <c r="D64">
-        <v>0.05884333840364399</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05471208099156827</v>
+      </c>
+      <c r="E64">
+        <v>0.0248392733542653</v>
+      </c>
+      <c r="F64">
+        <v>-0.01383290282311116</v>
+      </c>
+      <c r="G64">
+        <v>-0.0518198602582895</v>
+      </c>
+      <c r="H64">
+        <v>-0.0623871199967329</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.04974213911603514</v>
+        <v>0.04680374613438754</v>
       </c>
       <c r="C65">
-        <v>0.005073611260970331</v>
+        <v>-0.0246773840981645</v>
       </c>
       <c r="D65">
-        <v>0.111816827186056</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1153488187430737</v>
+      </c>
+      <c r="E65">
+        <v>0.002825250087728152</v>
+      </c>
+      <c r="F65">
+        <v>0.01759671589263131</v>
+      </c>
+      <c r="G65">
+        <v>0.02967787208181878</v>
+      </c>
+      <c r="H65">
+        <v>0.0246004720407544</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04579637744701593</v>
+        <v>0.03969020367828213</v>
       </c>
       <c r="C66">
-        <v>0.05712618185556255</v>
+        <v>-0.0754392909808221</v>
       </c>
       <c r="D66">
-        <v>0.1104194664473322</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.129917666617263</v>
+      </c>
+      <c r="E66">
+        <v>0.0118918877388086</v>
+      </c>
+      <c r="F66">
+        <v>-0.01136870570238285</v>
+      </c>
+      <c r="G66">
+        <v>0.0163112898837793</v>
+      </c>
+      <c r="H66">
+        <v>-0.05518039709371841</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.04144471267995201</v>
+        <v>0.03717756197805487</v>
       </c>
       <c r="C67">
-        <v>0.01865560582328524</v>
+        <v>-0.02681066697531328</v>
       </c>
       <c r="D67">
-        <v>0.02177004424952056</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.02022481469299843</v>
+      </c>
+      <c r="E67">
+        <v>0.01652776285285391</v>
+      </c>
+      <c r="F67">
+        <v>-0.006948892374142574</v>
+      </c>
+      <c r="G67">
+        <v>0.03620005092697023</v>
+      </c>
+      <c r="H67">
+        <v>-0.0382060272863392</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1587012221296777</v>
+        <v>0.1968379105814804</v>
       </c>
       <c r="C68">
-        <v>-0.2394100452030818</v>
+        <v>0.1986811261424743</v>
       </c>
       <c r="D68">
-        <v>-0.02084354580933579</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01080695462440763</v>
+      </c>
+      <c r="E68">
+        <v>0.05365391583131309</v>
+      </c>
+      <c r="F68">
+        <v>0.0297906891451921</v>
+      </c>
+      <c r="G68">
+        <v>0.01181094405984009</v>
+      </c>
+      <c r="H68">
+        <v>0.00625922077951765</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08872774247791626</v>
+        <v>0.07440609670954422</v>
       </c>
       <c r="C69">
-        <v>0.08402390578983317</v>
+        <v>-0.09714539435996447</v>
       </c>
       <c r="D69">
-        <v>0.06676492395355074</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04649900975610024</v>
+      </c>
+      <c r="E69">
+        <v>0.02398834808245574</v>
+      </c>
+      <c r="F69">
+        <v>0.007013139794738174</v>
+      </c>
+      <c r="G69">
+        <v>-0.03012714636094797</v>
+      </c>
+      <c r="H69">
+        <v>-0.03844401113701741</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1394479054307192</v>
+        <v>0.1840011110969283</v>
       </c>
       <c r="C71">
-        <v>-0.2405081305025692</v>
+        <v>0.2100971003792514</v>
       </c>
       <c r="D71">
-        <v>0.01526927538806973</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03568460272015974</v>
+      </c>
+      <c r="E71">
+        <v>0.05251336322992169</v>
+      </c>
+      <c r="F71">
+        <v>0.03360863386111049</v>
+      </c>
+      <c r="G71">
+        <v>-0.01592234534391047</v>
+      </c>
+      <c r="H71">
+        <v>-0.0252202243258929</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09786714862841986</v>
+        <v>0.09821083584641728</v>
       </c>
       <c r="C72">
-        <v>0.04067147733954919</v>
+        <v>-0.06980677162907138</v>
       </c>
       <c r="D72">
-        <v>0.08538766046207566</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.09306798468150447</v>
+      </c>
+      <c r="E72">
+        <v>-0.0382466376625431</v>
+      </c>
+      <c r="F72">
+        <v>0.03881736004215586</v>
+      </c>
+      <c r="G72">
+        <v>-0.02947502579461908</v>
+      </c>
+      <c r="H72">
+        <v>-0.03521753646550188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2670458779711871</v>
+        <v>0.2392044684309748</v>
       </c>
       <c r="C73">
-        <v>0.01041349074858315</v>
+        <v>-0.08819250760877569</v>
       </c>
       <c r="D73">
-        <v>0.2918127380280974</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1711798395873392</v>
+      </c>
+      <c r="E73">
+        <v>-0.6680418528001183</v>
+      </c>
+      <c r="F73">
+        <v>0.02561405545401579</v>
+      </c>
+      <c r="G73">
+        <v>-0.0154459955372771</v>
+      </c>
+      <c r="H73">
+        <v>0.1592927125157803</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1101866559384202</v>
+        <v>0.0987524785256835</v>
       </c>
       <c r="C74">
-        <v>0.06641643629498521</v>
+        <v>-0.09120821947122341</v>
       </c>
       <c r="D74">
-        <v>0.01538317635399073</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.004215317850668922</v>
+      </c>
+      <c r="E74">
+        <v>0.07666218912179254</v>
+      </c>
+      <c r="F74">
+        <v>0.06168281530766142</v>
+      </c>
+      <c r="G74">
+        <v>-0.06110097698290985</v>
+      </c>
+      <c r="H74">
+        <v>0.02661444572953599</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2490370999375521</v>
+        <v>0.22680908170314</v>
       </c>
       <c r="C75">
-        <v>0.1244678044245085</v>
+        <v>-0.1680005086823805</v>
       </c>
       <c r="D75">
-        <v>-0.06466725482985375</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.09406361898912252</v>
+      </c>
+      <c r="E75">
+        <v>0.1051857424562491</v>
+      </c>
+      <c r="F75">
+        <v>-0.006655105077761763</v>
+      </c>
+      <c r="G75">
+        <v>-0.06063124203062065</v>
+      </c>
+      <c r="H75">
+        <v>0.0984487172365428</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1422232211589455</v>
+        <v>0.1271968746652561</v>
       </c>
       <c r="C76">
-        <v>0.08712804125313381</v>
+        <v>-0.1147960178919254</v>
       </c>
       <c r="D76">
-        <v>-0.00266361644662515</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01175341031080812</v>
+      </c>
+      <c r="E76">
+        <v>0.1162946416095698</v>
+      </c>
+      <c r="F76">
+        <v>0.015302948535612</v>
+      </c>
+      <c r="G76">
+        <v>-0.04735462774514314</v>
+      </c>
+      <c r="H76">
+        <v>-0.01426339340952541</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.06730085147746384</v>
+        <v>0.06092763603519537</v>
       </c>
       <c r="C77">
-        <v>0.0609464896522055</v>
+        <v>-0.07077863205573838</v>
       </c>
       <c r="D77">
-        <v>0.04599766088762827</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1344981065947161</v>
+      </c>
+      <c r="E77">
+        <v>0.2181864810803787</v>
+      </c>
+      <c r="F77">
+        <v>-0.2843460464210276</v>
+      </c>
+      <c r="G77">
+        <v>0.2012243287657947</v>
+      </c>
+      <c r="H77">
+        <v>0.3305590619106059</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.04323935860077271</v>
+        <v>0.04315290071224756</v>
       </c>
       <c r="C78">
-        <v>0.05437961794560644</v>
+        <v>-0.06631497218780766</v>
       </c>
       <c r="D78">
-        <v>0.1179680815603657</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1311016495918838</v>
+      </c>
+      <c r="E78">
+        <v>0.01425964878431761</v>
+      </c>
+      <c r="F78">
+        <v>0.01016159423926602</v>
+      </c>
+      <c r="G78">
+        <v>-0.01445018486688032</v>
+      </c>
+      <c r="H78">
+        <v>-0.02787738206486531</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.016799180428835</v>
+        <v>0.04585326745095875</v>
       </c>
       <c r="C79">
-        <v>0.07247241734343579</v>
+        <v>-0.09011049919724223</v>
       </c>
       <c r="D79">
-        <v>0.0005968217822365959</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02174430431207018</v>
+      </c>
+      <c r="E79">
+        <v>0.1986561544281173</v>
+      </c>
+      <c r="F79">
+        <v>0.1345824190770992</v>
+      </c>
+      <c r="G79">
+        <v>-0.7283763362038345</v>
+      </c>
+      <c r="H79">
+        <v>0.3538381710670021</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.0332778770916841</v>
+        <v>0.02559383914366653</v>
       </c>
       <c r="C80">
-        <v>0.02745175817335113</v>
+        <v>-0.04415760583188794</v>
       </c>
       <c r="D80">
-        <v>0.02457058180083203</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03268995572774905</v>
+      </c>
+      <c r="E80">
+        <v>0.01697655937897401</v>
+      </c>
+      <c r="F80">
+        <v>-0.01864027401746052</v>
+      </c>
+      <c r="G80">
+        <v>0.05187856099891229</v>
+      </c>
+      <c r="H80">
+        <v>-0.006814687987413303</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1455723785368777</v>
+        <v>0.1273062142530569</v>
       </c>
       <c r="C81">
-        <v>0.09317571644586108</v>
+        <v>-0.1180135842962502</v>
       </c>
       <c r="D81">
-        <v>-0.04978175793641218</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.06572909970148343</v>
+      </c>
+      <c r="E81">
+        <v>0.1136206168479654</v>
+      </c>
+      <c r="F81">
+        <v>0.02425643084822851</v>
+      </c>
+      <c r="G81">
+        <v>-0.0483337062209756</v>
+      </c>
+      <c r="H81">
+        <v>0.01099746768615998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.31137026936479</v>
+        <v>0.2507954669470678</v>
       </c>
       <c r="C82">
-        <v>0.2623578495131582</v>
+        <v>-0.2652972446234699</v>
       </c>
       <c r="D82">
-        <v>-0.2382385845188491</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2326006360380257</v>
+      </c>
+      <c r="E82">
+        <v>-0.02157123594480307</v>
+      </c>
+      <c r="F82">
+        <v>0.04800340904473439</v>
+      </c>
+      <c r="G82">
+        <v>-0.07036582424886553</v>
+      </c>
+      <c r="H82">
+        <v>-0.4468835990993366</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02928220238670474</v>
+        <v>0.02481874370387287</v>
       </c>
       <c r="C83">
-        <v>0.0521385147416068</v>
+        <v>-0.04956631577708435</v>
       </c>
       <c r="D83">
-        <v>0.0479680354875983</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04997954300030195</v>
+      </c>
+      <c r="E83">
+        <v>0.0186326788675489</v>
+      </c>
+      <c r="F83">
+        <v>-0.02431006834979859</v>
+      </c>
+      <c r="G83">
+        <v>0.01682065366532472</v>
+      </c>
+      <c r="H83">
+        <v>-0.02222553018953108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0009214007862181807</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.003904951428086191</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.01800855071808203</v>
+      </c>
+      <c r="E84">
+        <v>0.01618633923344624</v>
+      </c>
+      <c r="F84">
+        <v>0.008028208634894118</v>
+      </c>
+      <c r="G84">
+        <v>0.007982142243596377</v>
+      </c>
+      <c r="H84">
+        <v>-0.001639981262093029</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1793336609109961</v>
+        <v>0.1568440102549686</v>
       </c>
       <c r="C85">
-        <v>0.09280044979882585</v>
+        <v>-0.1346792657739418</v>
       </c>
       <c r="D85">
-        <v>-0.03390512937206018</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.06247216181790846</v>
+      </c>
+      <c r="E85">
+        <v>0.05207435853250148</v>
+      </c>
+      <c r="F85">
+        <v>0.03215730392398547</v>
+      </c>
+      <c r="G85">
+        <v>-0.09675998381844093</v>
+      </c>
+      <c r="H85">
+        <v>0.07768059830599142</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01673164465811214</v>
+        <v>0.01931185065028915</v>
       </c>
       <c r="C86">
-        <v>0.02881256785788712</v>
+        <v>-0.02204095250219058</v>
       </c>
       <c r="D86">
-        <v>0.1417909973567228</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1278372005874088</v>
+      </c>
+      <c r="E86">
+        <v>0.007994784431032263</v>
+      </c>
+      <c r="F86">
+        <v>-0.01753168169890464</v>
+      </c>
+      <c r="G86">
+        <v>0.002198179615659531</v>
+      </c>
+      <c r="H86">
+        <v>-0.06398655794287057</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03238424245938259</v>
+        <v>0.03580918088310834</v>
       </c>
       <c r="C87">
-        <v>0.005020451354915883</v>
+        <v>-0.02461178585856876</v>
       </c>
       <c r="D87">
-        <v>0.09934608347660516</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1347501515023241</v>
+      </c>
+      <c r="E87">
+        <v>0.08002406893741271</v>
+      </c>
+      <c r="F87">
+        <v>-0.007428183877380289</v>
+      </c>
+      <c r="G87">
+        <v>0.02052791099616637</v>
+      </c>
+      <c r="H87">
+        <v>-0.03003621727443213</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.07844031067039783</v>
+        <v>0.07023281133789198</v>
       </c>
       <c r="C88">
-        <v>0.03811132101898385</v>
+        <v>-0.05644102720805785</v>
       </c>
       <c r="D88">
-        <v>0.02646350362419494</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01283889546293634</v>
+      </c>
+      <c r="E88">
+        <v>0.01837173631336864</v>
+      </c>
+      <c r="F88">
+        <v>0.01929455030433808</v>
+      </c>
+      <c r="G88">
+        <v>0.00184099685068559</v>
+      </c>
+      <c r="H88">
+        <v>-0.03705989442320304</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2063624420478356</v>
+        <v>0.2822960990039466</v>
       </c>
       <c r="C89">
-        <v>-0.396696878846932</v>
+        <v>0.3544806395578194</v>
       </c>
       <c r="D89">
-        <v>-0.02795206782073577</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.001650755546087948</v>
+      </c>
+      <c r="E89">
+        <v>0.04422723110275986</v>
+      </c>
+      <c r="F89">
+        <v>-0.04089098593624536</v>
+      </c>
+      <c r="G89">
+        <v>-0.04091855052846109</v>
+      </c>
+      <c r="H89">
+        <v>-0.08270031466891599</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1910808449129998</v>
+        <v>0.2401075833238381</v>
       </c>
       <c r="C90">
-        <v>-0.2958231978472986</v>
+        <v>0.2523090531110381</v>
       </c>
       <c r="D90">
-        <v>-0.02514316129457199</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01448074947549076</v>
+      </c>
+      <c r="E90">
+        <v>0.04578135731218549</v>
+      </c>
+      <c r="F90">
+        <v>0.00613935652144408</v>
+      </c>
+      <c r="G90">
+        <v>0.04908859942027072</v>
+      </c>
+      <c r="H90">
+        <v>-0.0442159395549709</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1857104388244566</v>
+        <v>0.1587934408927847</v>
       </c>
       <c r="C91">
-        <v>0.1380064504178319</v>
+        <v>-0.1589521162527076</v>
       </c>
       <c r="D91">
-        <v>-0.06264931527555484</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08333016320438992</v>
+      </c>
+      <c r="E91">
+        <v>0.1086616278103734</v>
+      </c>
+      <c r="F91">
+        <v>0.02017501386498292</v>
+      </c>
+      <c r="G91">
+        <v>-0.09618810405966884</v>
+      </c>
+      <c r="H91">
+        <v>0.08076931338883032</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1699477285538861</v>
+        <v>0.2252687324876596</v>
       </c>
       <c r="C92">
-        <v>-0.2933189733932036</v>
+        <v>0.2703808849290953</v>
       </c>
       <c r="D92">
-        <v>0.005651544971324875</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.02892361725641636</v>
+      </c>
+      <c r="E92">
+        <v>0.08536588302130572</v>
+      </c>
+      <c r="F92">
+        <v>-0.01088807554453805</v>
+      </c>
+      <c r="G92">
+        <v>0.01269081402985038</v>
+      </c>
+      <c r="H92">
+        <v>-0.0388701970657202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2197915723068305</v>
+        <v>0.2648966492002882</v>
       </c>
       <c r="C93">
-        <v>-0.3226867308803499</v>
+        <v>0.2656015614399888</v>
       </c>
       <c r="D93">
-        <v>-0.001446843736943364</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.004586341955735158</v>
+      </c>
+      <c r="E93">
+        <v>0.01313911160150842</v>
+      </c>
+      <c r="F93">
+        <v>0.01933089298642696</v>
+      </c>
+      <c r="G93">
+        <v>-0.004709967858654232</v>
+      </c>
+      <c r="H93">
+        <v>0.002473905588727432</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.395511818594305</v>
+        <v>0.3374296335188361</v>
       </c>
       <c r="C94">
-        <v>0.2128732505810061</v>
+        <v>-0.266958682291239</v>
       </c>
       <c r="D94">
-        <v>-0.4664452965243507</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4300395011063466</v>
+      </c>
+      <c r="E94">
+        <v>0.09863102617485396</v>
+      </c>
+      <c r="F94">
+        <v>-0.01897234987942359</v>
+      </c>
+      <c r="G94">
+        <v>0.4821966543391089</v>
+      </c>
+      <c r="H94">
+        <v>0.1915476291260451</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07817976952003262</v>
+        <v>0.0683626579082995</v>
       </c>
       <c r="C95">
-        <v>0.06167802677543749</v>
+        <v>-0.06558037316975675</v>
       </c>
       <c r="D95">
-        <v>0.1078943497106982</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.0841165474945067</v>
+      </c>
+      <c r="E95">
+        <v>-0.01515438752590851</v>
+      </c>
+      <c r="F95">
+        <v>-0.9064022165892561</v>
+      </c>
+      <c r="G95">
+        <v>-0.1485958474608356</v>
+      </c>
+      <c r="H95">
+        <v>-0.007962646733448726</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1723214941285665</v>
+        <v>0.1604618966079168</v>
       </c>
       <c r="C98">
-        <v>0.01880841783627003</v>
+        <v>-0.06737132520057014</v>
       </c>
       <c r="D98">
-        <v>0.168105682463137</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1293159093138893</v>
+      </c>
+      <c r="E98">
+        <v>-0.3169557067081815</v>
+      </c>
+      <c r="F98">
+        <v>0.05294165168384329</v>
+      </c>
+      <c r="G98">
+        <v>-0.04742278374397654</v>
+      </c>
+      <c r="H98">
+        <v>0.05369882393990671</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.006384832288723512</v>
+        <v>0.006408604039652655</v>
       </c>
       <c r="C101">
-        <v>0.01679247884113307</v>
+        <v>-0.02218649644977847</v>
       </c>
       <c r="D101">
-        <v>0.06300460891127535</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.08190490447778492</v>
+      </c>
+      <c r="E101">
+        <v>0.03246062695596956</v>
+      </c>
+      <c r="F101">
+        <v>0.01083242646110132</v>
+      </c>
+      <c r="G101">
+        <v>-0.003356028870491131</v>
+      </c>
+      <c r="H101">
+        <v>-0.109400251859434</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1292254614654068</v>
+        <v>0.1067061903300992</v>
       </c>
       <c r="C102">
-        <v>0.1103908165126483</v>
+        <v>-0.1186276841538876</v>
       </c>
       <c r="D102">
-        <v>-0.03695273790973337</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05698433035615485</v>
+      </c>
+      <c r="E102">
+        <v>0.03106982918366943</v>
+      </c>
+      <c r="F102">
+        <v>-0.02482554317111996</v>
+      </c>
+      <c r="G102">
+        <v>-0.03481524669658517</v>
+      </c>
+      <c r="H102">
+        <v>-0.0357903542972559</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
